--- a/Christos_first_second/remembers_first_close.xlsx
+++ b/Christos_first_second/remembers_first_close.xlsx
@@ -3202,7 +3202,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>27.64</v>
+        <v>-27.64</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -3216,7 +3216,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.49</v>
+        <v>-0.49</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -3258,7 +3258,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>11.76</v>
+        <v>-11.76</v>
       </c>
       <c r="C206" t="s">
         <v>4</v>
@@ -3272,7 +3272,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>3.17</v>
+        <v>-3.17</v>
       </c>
       <c r="C207" t="s">
         <v>4</v>
@@ -3286,7 +3286,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.92</v>
+        <v>-2.92</v>
       </c>
       <c r="C208" t="s">
         <v>4</v>
@@ -3300,7 +3300,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.95</v>
+        <v>-7.95</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -3314,7 +3314,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>9.92</v>
+        <v>-9.92</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -3356,7 +3356,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>17.94</v>
+        <v>-17.94</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
@@ -3370,7 +3370,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>31.69</v>
+        <v>-31.69</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -3384,7 +3384,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>31.44</v>
+        <v>-31.44</v>
       </c>
       <c r="C215" t="s">
         <v>4</v>
@@ -3398,7 +3398,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>26.67</v>
+        <v>-26.67</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -3412,7 +3412,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>16.2</v>
+        <v>-16.2</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5.89</v>
+        <v>-5.89</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -3440,7 +3440,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7.57</v>
+        <v>-7.57</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -3454,7 +3454,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>12.87</v>
+        <v>-12.87</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -3482,7 +3482,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.21</v>
+        <v>-12.21</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -3510,7 +3510,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>24.69</v>
+        <v>-24.69</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -3524,7 +3524,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.35</v>
+        <v>-12.35</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>29.55</v>
+        <v>-29.55</v>
       </c>
       <c r="C226" t="s">
         <v>4</v>
@@ -3552,7 +3552,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>30.62</v>
+        <v>-30.62</v>
       </c>
       <c r="C227" t="s">
         <v>4</v>
@@ -3566,7 +3566,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>13.35</v>
+        <v>-13.35</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
@@ -3580,7 +3580,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>28.41</v>
+        <v>-28.41</v>
       </c>
       <c r="C229" t="s">
         <v>4</v>
@@ -3594,7 +3594,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>8.970000000000001</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C230" t="s">
         <v>4</v>
@@ -3608,7 +3608,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>17.54</v>
+        <v>-17.54</v>
       </c>
       <c r="C231" t="s">
         <v>4</v>
@@ -3636,7 +3636,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>22.42</v>
+        <v>-22.42</v>
       </c>
       <c r="C233" t="s">
         <v>4</v>
@@ -3706,7 +3706,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>29.58</v>
+        <v>-29.58</v>
       </c>
       <c r="C238" t="s">
         <v>4</v>
@@ -3734,7 +3734,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>32.93</v>
+        <v>-32.93</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -3748,7 +3748,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>12.76</v>
+        <v>-12.76</v>
       </c>
       <c r="C241" t="s">
         <v>4</v>
@@ -3762,7 +3762,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>22.2</v>
+        <v>-22.2</v>
       </c>
       <c r="C242" t="s">
         <v>4</v>
@@ -3776,7 +3776,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>20.17</v>
+        <v>-20.17</v>
       </c>
       <c r="C243" t="s">
         <v>4</v>
@@ -3790,7 +3790,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>24.79</v>
+        <v>-24.79</v>
       </c>
       <c r="C244" t="s">
         <v>4</v>
@@ -3804,7 +3804,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>42.35</v>
+        <v>-42.35</v>
       </c>
       <c r="C245" t="s">
         <v>4</v>
@@ -3818,7 +3818,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>16.08</v>
+        <v>-16.08</v>
       </c>
       <c r="C246" t="s">
         <v>4</v>
@@ -3832,7 +3832,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4.31</v>
+        <v>-4.31</v>
       </c>
       <c r="C247" t="s">
         <v>4</v>
@@ -3846,7 +3846,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>35.89</v>
+        <v>-35.89</v>
       </c>
       <c r="C248" t="s">
         <v>4</v>
@@ -3874,7 +3874,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>46.31</v>
+        <v>-46.31</v>
       </c>
       <c r="C250" t="s">
         <v>4</v>
@@ -3888,7 +3888,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>10.42</v>
+        <v>-10.42</v>
       </c>
       <c r="C251" t="s">
         <v>4</v>
@@ -3902,7 +3902,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>18.52</v>
+        <v>-18.52</v>
       </c>
       <c r="C252" t="s">
         <v>4</v>
@@ -3916,7 +3916,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>11.39</v>
+        <v>-11.39</v>
       </c>
       <c r="C253" t="s">
         <v>4</v>
@@ -3930,7 +3930,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.87</v>
+        <v>-0.87</v>
       </c>
       <c r="C254" t="s">
         <v>4</v>
@@ -3944,7 +3944,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>18.71</v>
+        <v>-18.71</v>
       </c>
       <c r="C255" t="s">
         <v>4</v>
@@ -3972,7 +3972,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>28.79</v>
+        <v>-28.79</v>
       </c>
       <c r="C257" t="s">
         <v>4</v>
@@ -3986,7 +3986,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>18.3</v>
+        <v>-18.3</v>
       </c>
       <c r="C258" t="s">
         <v>4</v>
@@ -4000,7 +4000,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>26.73</v>
+        <v>-26.73</v>
       </c>
       <c r="C259" t="s">
         <v>4</v>
@@ -4028,7 +4028,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.92</v>
+        <v>-1.92</v>
       </c>
       <c r="C261" t="s">
         <v>4</v>
@@ -4056,7 +4056,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>9.970000000000001</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="C263" t="s">
         <v>4</v>
@@ -4098,7 +4098,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>8.140000000000001</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="C266" t="s">
         <v>4</v>
@@ -4140,7 +4140,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>28.83</v>
+        <v>-28.83</v>
       </c>
       <c r="C269" t="s">
         <v>4</v>
@@ -4154,7 +4154,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.81</v>
+        <v>-1.81</v>
       </c>
       <c r="C270" t="s">
         <v>4</v>
@@ -4182,7 +4182,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>30.58</v>
+        <v>-30.58</v>
       </c>
       <c r="C272" t="s">
         <v>4</v>
@@ -4196,7 +4196,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>28.25</v>
+        <v>-28.25</v>
       </c>
       <c r="C273" t="s">
         <v>4</v>
@@ -4210,7 +4210,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>8.529999999999999</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="C274" t="s">
         <v>4</v>
@@ -4238,7 +4238,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>22.81</v>
+        <v>-22.81</v>
       </c>
       <c r="C276" t="s">
         <v>4</v>
@@ -4252,7 +4252,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>22.19</v>
+        <v>-22.19</v>
       </c>
       <c r="C277" t="s">
         <v>4</v>
@@ -4280,7 +4280,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>22.17</v>
+        <v>-22.17</v>
       </c>
       <c r="C279" t="s">
         <v>4</v>
@@ -4294,7 +4294,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>28.06</v>
+        <v>-28.06</v>
       </c>
       <c r="C280" t="s">
         <v>4</v>
@@ -4308,7 +4308,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>19.19</v>
+        <v>-19.19</v>
       </c>
       <c r="C281" t="s">
         <v>4</v>
@@ -4322,7 +4322,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>19.58</v>
+        <v>-19.58</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>23.33</v>
+        <v>-23.33</v>
       </c>
       <c r="C283" t="s">
         <v>4</v>
@@ -4350,7 +4350,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>29.81</v>
+        <v>-29.81</v>
       </c>
       <c r="C284" t="s">
         <v>4</v>
@@ -4364,7 +4364,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>19.6</v>
+        <v>-19.6</v>
       </c>
       <c r="C285" t="s">
         <v>4</v>
@@ -4378,7 +4378,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>42.38</v>
+        <v>-42.38</v>
       </c>
       <c r="C286" t="s">
         <v>4</v>
@@ -4392,7 +4392,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>20.11</v>
+        <v>-20.11</v>
       </c>
       <c r="C287" t="s">
         <v>4</v>
@@ -4420,7 +4420,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>16.06</v>
+        <v>-16.06</v>
       </c>
       <c r="C289" t="s">
         <v>4</v>
@@ -4434,7 +4434,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>15.08</v>
+        <v>-15.08</v>
       </c>
       <c r="C290" t="s">
         <v>4</v>
@@ -4448,7 +4448,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>20.75</v>
+        <v>-20.75</v>
       </c>
       <c r="C291" t="s">
         <v>4</v>
@@ -4462,7 +4462,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>17.61</v>
+        <v>-17.61</v>
       </c>
       <c r="C292" t="s">
         <v>4</v>
@@ -4490,7 +4490,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>18.78</v>
+        <v>-18.78</v>
       </c>
       <c r="C294" t="s">
         <v>4</v>
@@ -4504,7 +4504,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="C295" t="s">
         <v>4</v>
@@ -4518,7 +4518,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>5.56</v>
+        <v>-5.56</v>
       </c>
       <c r="C296" t="s">
         <v>4</v>
@@ -4546,7 +4546,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>35.12</v>
+        <v>-35.12</v>
       </c>
       <c r="C298" t="s">
         <v>4</v>
@@ -4560,7 +4560,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>25.58</v>
+        <v>-25.58</v>
       </c>
       <c r="C299" t="s">
         <v>4</v>
@@ -4588,7 +4588,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>3.67</v>
+        <v>-3.67</v>
       </c>
       <c r="C301" t="s">
         <v>4</v>
@@ -4602,7 +4602,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9.550000000000001</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="C302" t="s">
         <v>4</v>
@@ -4630,7 +4630,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
       <c r="C304" t="s">
         <v>4</v>
@@ -4644,7 +4644,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>16.19</v>
+        <v>-16.19</v>
       </c>
       <c r="C305" t="s">
         <v>4</v>
@@ -4658,7 +4658,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.46</v>
+        <v>-0.46</v>
       </c>
       <c r="C306" t="s">
         <v>4</v>
@@ -4672,7 +4672,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>24.4</v>
+        <v>-24.4</v>
       </c>
       <c r="C307" t="s">
         <v>4</v>
@@ -4686,7 +4686,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>12.41</v>
+        <v>-12.41</v>
       </c>
       <c r="C308" t="s">
         <v>4</v>
@@ -4714,7 +4714,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>3.25</v>
+        <v>-3.25</v>
       </c>
       <c r="C310" t="s">
         <v>4</v>
@@ -4728,7 +4728,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>29.63</v>
+        <v>-29.63</v>
       </c>
       <c r="C311" t="s">
         <v>4</v>
@@ -4756,7 +4756,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>22.42</v>
+        <v>-22.42</v>
       </c>
       <c r="C313" t="s">
         <v>4</v>
@@ -4770,7 +4770,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4.73</v>
+        <v>-4.73</v>
       </c>
       <c r="C314" t="s">
         <v>4</v>
@@ -4784,7 +4784,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>24.62</v>
+        <v>-24.62</v>
       </c>
       <c r="C315" t="s">
         <v>4</v>
@@ -4798,7 +4798,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16.24</v>
+        <v>-16.24</v>
       </c>
       <c r="C316" t="s">
         <v>4</v>
@@ -4812,7 +4812,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>11.61</v>
+        <v>-11.61</v>
       </c>
       <c r="C317" t="s">
         <v>4</v>
@@ -4840,7 +4840,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>9.69</v>
+        <v>-9.69</v>
       </c>
       <c r="C319" t="s">
         <v>4</v>
@@ -4868,7 +4868,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>7.68</v>
+        <v>-7.68</v>
       </c>
       <c r="C321" t="s">
         <v>4</v>
@@ -4882,7 +4882,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>35.18</v>
+        <v>-35.18</v>
       </c>
       <c r="C322" t="s">
         <v>4</v>
@@ -4896,7 +4896,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>37.68</v>
+        <v>-37.68</v>
       </c>
       <c r="C323" t="s">
         <v>4</v>
@@ -4910,7 +4910,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>27.59</v>
+        <v>-27.59</v>
       </c>
       <c r="C324" t="s">
         <v>4</v>
@@ -4938,7 +4938,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>22.87</v>
+        <v>-22.87</v>
       </c>
       <c r="C326" t="s">
         <v>4</v>
@@ -4952,7 +4952,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>16.65</v>
+        <v>-16.65</v>
       </c>
       <c r="C327" t="s">
         <v>4</v>
@@ -4994,7 +4994,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>12.09</v>
+        <v>-12.09</v>
       </c>
       <c r="C330" t="s">
         <v>4</v>
@@ -5008,7 +5008,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>21.67</v>
+        <v>-21.67</v>
       </c>
       <c r="C331" t="s">
         <v>4</v>
@@ -5022,7 +5022,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>37.73</v>
+        <v>-37.73</v>
       </c>
       <c r="C332" t="s">
         <v>4</v>
@@ -5064,7 +5064,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="C335" t="s">
         <v>4</v>
@@ -5092,7 +5092,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>8.140000000000001</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="C337" t="s">
         <v>4</v>
@@ -5120,7 +5120,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>27.27</v>
+        <v>-27.27</v>
       </c>
       <c r="C339" t="s">
         <v>4</v>
@@ -5134,7 +5134,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>5.18</v>
+        <v>-5.18</v>
       </c>
       <c r="C340" t="s">
         <v>4</v>
@@ -5148,7 +5148,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>11.82</v>
+        <v>-11.82</v>
       </c>
       <c r="C341" t="s">
         <v>4</v>
@@ -5162,7 +5162,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>30.21</v>
+        <v>-30.21</v>
       </c>
       <c r="C342" t="s">
         <v>4</v>
@@ -5176,7 +5176,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23.38</v>
+        <v>-23.38</v>
       </c>
       <c r="C343" t="s">
         <v>4</v>
@@ -5190,7 +5190,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>15.67</v>
+        <v>-15.67</v>
       </c>
       <c r="C344" t="s">
         <v>4</v>
@@ -5204,7 +5204,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>18.17</v>
+        <v>-18.17</v>
       </c>
       <c r="C345" t="s">
         <v>4</v>
@@ -5218,7 +5218,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>18.88</v>
+        <v>-18.88</v>
       </c>
       <c r="C346" t="s">
         <v>4</v>
@@ -5260,7 +5260,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>23.28</v>
+        <v>-23.28</v>
       </c>
       <c r="C349" t="s">
         <v>4</v>
@@ -5274,7 +5274,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>7.29</v>
+        <v>-7.29</v>
       </c>
       <c r="C350" t="s">
         <v>4</v>
@@ -5302,7 +5302,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>37.62</v>
+        <v>-37.62</v>
       </c>
       <c r="C352" t="s">
         <v>4</v>
@@ -5344,7 +5344,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>11.62</v>
+        <v>-11.62</v>
       </c>
       <c r="C355" t="s">
         <v>4</v>
@@ -5372,7 +5372,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>9.32</v>
+        <v>-9.32</v>
       </c>
       <c r="C357" t="s">
         <v>4</v>
@@ -5386,7 +5386,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.88</v>
+        <v>-0.88</v>
       </c>
       <c r="C358" t="s">
         <v>4</v>
@@ -5400,7 +5400,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>31.23</v>
+        <v>-31.23</v>
       </c>
       <c r="C359" t="s">
         <v>4</v>
@@ -5414,7 +5414,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>28.6</v>
+        <v>-28.6</v>
       </c>
       <c r="C360" t="s">
         <v>4</v>
@@ -5442,7 +5442,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>37.47</v>
+        <v>-37.47</v>
       </c>
       <c r="C362" t="s">
         <v>4</v>
@@ -5456,7 +5456,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>18.54</v>
+        <v>-18.54</v>
       </c>
       <c r="C363" t="s">
         <v>4</v>
@@ -5470,7 +5470,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>20.19</v>
+        <v>-20.19</v>
       </c>
       <c r="C364" t="s">
         <v>4</v>
@@ -5484,7 +5484,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>25.2</v>
+        <v>-25.2</v>
       </c>
       <c r="C365" t="s">
         <v>4</v>
@@ -5498,7 +5498,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>11.25</v>
+        <v>-11.25</v>
       </c>
       <c r="C366" t="s">
         <v>4</v>
@@ -5512,7 +5512,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5.86</v>
+        <v>-5.86</v>
       </c>
       <c r="C367" t="s">
         <v>4</v>
@@ -5526,7 +5526,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>18.94</v>
+        <v>-18.94</v>
       </c>
       <c r="C368" t="s">
         <v>4</v>
@@ -5540,7 +5540,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C369" t="s">
         <v>4</v>
@@ -5554,7 +5554,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>22.9</v>
+        <v>-22.9</v>
       </c>
       <c r="C370" t="s">
         <v>4</v>
@@ -5582,7 +5582,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>13.37</v>
+        <v>-13.37</v>
       </c>
       <c r="C372" t="s">
         <v>4</v>
@@ -5596,7 +5596,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>23.44</v>
+        <v>-23.44</v>
       </c>
       <c r="C373" t="s">
         <v>4</v>
@@ -5610,7 +5610,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>38.96</v>
+        <v>-38.96</v>
       </c>
       <c r="C374" t="s">
         <v>4</v>
@@ -5624,7 +5624,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>20.15</v>
+        <v>-20.15</v>
       </c>
       <c r="C375" t="s">
         <v>4</v>
@@ -5638,7 +5638,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>24.31</v>
+        <v>-24.31</v>
       </c>
       <c r="C376" t="s">
         <v>4</v>
@@ -5652,7 +5652,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="C377" t="s">
         <v>4</v>
@@ -5680,7 +5680,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>33.52</v>
+        <v>-33.52</v>
       </c>
       <c r="C379" t="s">
         <v>4</v>
@@ -5708,7 +5708,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>25.61</v>
+        <v>-25.61</v>
       </c>
       <c r="C381" t="s">
         <v>4</v>
@@ -5722,7 +5722,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>25.77</v>
+        <v>-25.77</v>
       </c>
       <c r="C382" t="s">
         <v>4</v>
@@ -5736,7 +5736,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>14.6</v>
+        <v>-14.6</v>
       </c>
       <c r="C383" t="s">
         <v>4</v>
@@ -5750,7 +5750,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>11.38</v>
+        <v>-11.38</v>
       </c>
       <c r="C384" t="s">
         <v>4</v>
@@ -5764,7 +5764,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>6.81</v>
+        <v>-6.81</v>
       </c>
       <c r="C385" t="s">
         <v>4</v>
@@ -5792,7 +5792,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>16.24</v>
+        <v>-16.24</v>
       </c>
       <c r="C387" t="s">
         <v>4</v>
@@ -5806,7 +5806,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>29.61</v>
+        <v>-29.61</v>
       </c>
       <c r="C388" t="s">
         <v>4</v>
@@ -5820,7 +5820,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>19.95</v>
+        <v>-19.95</v>
       </c>
       <c r="C389" t="s">
         <v>4</v>
@@ -5834,7 +5834,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>21.46</v>
+        <v>-21.46</v>
       </c>
       <c r="C390" t="s">
         <v>4</v>
@@ -5848,7 +5848,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>17.3</v>
+        <v>-17.3</v>
       </c>
       <c r="C391" t="s">
         <v>4</v>
@@ -5876,7 +5876,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>22.21</v>
+        <v>-22.21</v>
       </c>
       <c r="C393" t="s">
         <v>4</v>
@@ -5890,7 +5890,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>18.8</v>
+        <v>-18.8</v>
       </c>
       <c r="C394" t="s">
         <v>4</v>
@@ -5904,7 +5904,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>12.82</v>
+        <v>-12.82</v>
       </c>
       <c r="C395" t="s">
         <v>4</v>
@@ -5918,7 +5918,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>25.86</v>
+        <v>-25.86</v>
       </c>
       <c r="C396" t="s">
         <v>4</v>
@@ -5960,7 +5960,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>3.96</v>
+        <v>-3.96</v>
       </c>
       <c r="C399" t="s">
         <v>4</v>
@@ -5974,7 +5974,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>18.41</v>
+        <v>-18.41</v>
       </c>
       <c r="C400" t="s">
         <v>4</v>
@@ -8802,7 +8802,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>21.79</v>
+        <v>-21.79</v>
       </c>
       <c r="C602" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>2.44</v>
+        <v>-2.44</v>
       </c>
       <c r="C603" t="s">
         <v>2</v>
@@ -8830,7 +8830,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>6.18</v>
+        <v>-6.18</v>
       </c>
       <c r="C604" t="s">
         <v>2</v>
@@ -8844,7 +8844,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>26.05</v>
+        <v>-26.05</v>
       </c>
       <c r="C605" t="s">
         <v>2</v>
@@ -8858,7 +8858,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>33.5</v>
+        <v>-33.5</v>
       </c>
       <c r="C606" t="s">
         <v>2</v>
@@ -8872,7 +8872,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>5.28</v>
+        <v>-5.28</v>
       </c>
       <c r="C607" t="s">
         <v>2</v>
@@ -8914,7 +8914,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>17.93</v>
+        <v>-17.93</v>
       </c>
       <c r="C610" t="s">
         <v>2</v>
@@ -8928,7 +8928,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>14.67</v>
+        <v>-14.67</v>
       </c>
       <c r="C611" t="s">
         <v>2</v>
@@ -8942,7 +8942,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>10.33</v>
+        <v>-10.33</v>
       </c>
       <c r="C612" t="s">
         <v>2</v>
@@ -8956,7 +8956,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>19.1</v>
+        <v>-19.1</v>
       </c>
       <c r="C613" t="s">
         <v>2</v>
@@ -8970,7 +8970,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>30.3</v>
+        <v>-30.3</v>
       </c>
       <c r="C614" t="s">
         <v>2</v>
@@ -8998,7 +8998,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>18.47</v>
+        <v>-18.47</v>
       </c>
       <c r="C616" t="s">
         <v>2</v>
@@ -9012,7 +9012,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>13.65</v>
+        <v>-13.65</v>
       </c>
       <c r="C617" t="s">
         <v>2</v>
@@ -9054,7 +9054,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>10.42</v>
+        <v>-10.42</v>
       </c>
       <c r="C620" t="s">
         <v>2</v>
@@ -9068,7 +9068,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>26.67</v>
+        <v>-26.67</v>
       </c>
       <c r="C621" t="s">
         <v>2</v>
@@ -9082,7 +9082,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>13.02</v>
+        <v>-13.02</v>
       </c>
       <c r="C622" t="s">
         <v>2</v>
@@ -9096,7 +9096,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>25.54</v>
+        <v>-25.54</v>
       </c>
       <c r="C623" t="s">
         <v>2</v>
@@ -9110,7 +9110,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>10.52</v>
+        <v>-10.52</v>
       </c>
       <c r="C624" t="s">
         <v>2</v>
@@ -9124,7 +9124,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>9.84</v>
+        <v>-9.84</v>
       </c>
       <c r="C625" t="s">
         <v>2</v>
@@ -9138,7 +9138,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>14.04</v>
+        <v>-14.04</v>
       </c>
       <c r="C626" t="s">
         <v>2</v>
@@ -9166,7 +9166,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>17.49</v>
+        <v>-17.49</v>
       </c>
       <c r="C628" t="s">
         <v>2</v>
@@ -9180,7 +9180,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>26.76</v>
+        <v>-26.76</v>
       </c>
       <c r="C629" t="s">
         <v>2</v>
@@ -9194,7 +9194,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>12.93</v>
+        <v>-12.93</v>
       </c>
       <c r="C630" t="s">
         <v>2</v>
@@ -9208,7 +9208,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>22.57</v>
+        <v>-22.57</v>
       </c>
       <c r="C631" t="s">
         <v>2</v>
@@ -9222,7 +9222,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>30.29</v>
+        <v>-30.29</v>
       </c>
       <c r="C632" t="s">
         <v>2</v>
@@ -9236,7 +9236,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>21.72</v>
+        <v>-21.72</v>
       </c>
       <c r="C633" t="s">
         <v>2</v>
@@ -9250,7 +9250,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>14.63</v>
+        <v>-14.63</v>
       </c>
       <c r="C634" t="s">
         <v>2</v>
@@ -9264,7 +9264,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>8.539999999999999</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="C635" t="s">
         <v>2</v>
@@ -9278,7 +9278,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>22.25</v>
+        <v>-22.25</v>
       </c>
       <c r="C636" t="s">
         <v>2</v>
@@ -9292,7 +9292,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>19.82</v>
+        <v>-19.82</v>
       </c>
       <c r="C637" t="s">
         <v>2</v>
@@ -9306,7 +9306,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>11.02</v>
+        <v>-11.02</v>
       </c>
       <c r="C638" t="s">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>22.11</v>
+        <v>-22.11</v>
       </c>
       <c r="C639" t="s">
         <v>2</v>
@@ -9334,7 +9334,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>30.23</v>
+        <v>-30.23</v>
       </c>
       <c r="C640" t="s">
         <v>2</v>
@@ -9348,7 +9348,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>15.67</v>
+        <v>-15.67</v>
       </c>
       <c r="C641" t="s">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>22.28</v>
+        <v>-22.28</v>
       </c>
       <c r="C642" t="s">
         <v>2</v>
@@ -9376,7 +9376,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>19.57</v>
+        <v>-19.57</v>
       </c>
       <c r="C643" t="s">
         <v>2</v>
@@ -9390,7 +9390,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>26.42</v>
+        <v>-26.42</v>
       </c>
       <c r="C644" t="s">
         <v>2</v>
@@ -9404,7 +9404,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>20.96</v>
+        <v>-20.96</v>
       </c>
       <c r="C645" t="s">
         <v>2</v>
@@ -9418,7 +9418,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>19.96</v>
+        <v>-19.96</v>
       </c>
       <c r="C646" t="s">
         <v>2</v>
@@ -9432,7 +9432,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>13.24</v>
+        <v>-13.24</v>
       </c>
       <c r="C647" t="s">
         <v>2</v>
@@ -9446,7 +9446,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>21.34</v>
+        <v>-21.34</v>
       </c>
       <c r="C648" t="s">
         <v>2</v>
@@ -9460,7 +9460,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>26.07</v>
+        <v>-26.07</v>
       </c>
       <c r="C649" t="s">
         <v>2</v>
@@ -9474,7 +9474,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>15.9</v>
+        <v>-15.9</v>
       </c>
       <c r="C650" t="s">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>33.4</v>
+        <v>-33.4</v>
       </c>
       <c r="C651" t="s">
         <v>2</v>
@@ -9502,7 +9502,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>15.93</v>
+        <v>-15.93</v>
       </c>
       <c r="C652" t="s">
         <v>2</v>
@@ -9516,7 +9516,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>26.07</v>
+        <v>-26.07</v>
       </c>
       <c r="C653" t="s">
         <v>2</v>
@@ -9530,7 +9530,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>24.75</v>
+        <v>-24.75</v>
       </c>
       <c r="C654" t="s">
         <v>2</v>
@@ -9544,7 +9544,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>13.93</v>
+        <v>-13.93</v>
       </c>
       <c r="C655" t="s">
         <v>2</v>
@@ -9558,7 +9558,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>22.02</v>
+        <v>-22.02</v>
       </c>
       <c r="C656" t="s">
         <v>2</v>
@@ -9572,7 +9572,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>12.34</v>
+        <v>-12.34</v>
       </c>
       <c r="C657" t="s">
         <v>2</v>
@@ -9586,7 +9586,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>13.03</v>
+        <v>-13.03</v>
       </c>
       <c r="C658" t="s">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>38.39</v>
+        <v>-38.39</v>
       </c>
       <c r="C660" t="s">
         <v>2</v>
@@ -9628,7 +9628,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>13.23</v>
+        <v>-13.23</v>
       </c>
       <c r="C661" t="s">
         <v>2</v>
@@ -9642,7 +9642,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>3.66</v>
+        <v>-3.66</v>
       </c>
       <c r="C662" t="s">
         <v>2</v>
@@ -9656,7 +9656,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>20.56</v>
+        <v>-20.56</v>
       </c>
       <c r="C663" t="s">
         <v>2</v>
@@ -9670,7 +9670,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>26.18</v>
+        <v>-26.18</v>
       </c>
       <c r="C664" t="s">
         <v>2</v>
@@ -9684,7 +9684,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>18.6</v>
+        <v>-18.6</v>
       </c>
       <c r="C665" t="s">
         <v>2</v>
@@ -9698,7 +9698,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>19.77</v>
+        <v>-19.77</v>
       </c>
       <c r="C666" t="s">
         <v>2</v>
@@ -9712,7 +9712,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>13.17</v>
+        <v>-13.17</v>
       </c>
       <c r="C667" t="s">
         <v>2</v>
@@ -9726,7 +9726,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>19.23</v>
+        <v>-19.23</v>
       </c>
       <c r="C668" t="s">
         <v>2</v>
@@ -9740,7 +9740,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>12.97</v>
+        <v>-12.97</v>
       </c>
       <c r="C669" t="s">
         <v>2</v>
@@ -9754,7 +9754,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>31.98</v>
+        <v>-31.98</v>
       </c>
       <c r="C670" t="s">
         <v>2</v>
@@ -9782,7 +9782,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>4.41</v>
+        <v>-4.41</v>
       </c>
       <c r="C672" t="s">
         <v>2</v>
@@ -9810,7 +9810,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>12.71</v>
+        <v>-12.71</v>
       </c>
       <c r="C674" t="s">
         <v>2</v>
@@ -9824,7 +9824,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>6.61</v>
+        <v>-6.61</v>
       </c>
       <c r="C675" t="s">
         <v>2</v>
@@ -9838,7 +9838,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>10.58</v>
+        <v>-10.58</v>
       </c>
       <c r="C676" t="s">
         <v>2</v>
@@ -9852,7 +9852,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>21.9</v>
+        <v>-21.9</v>
       </c>
       <c r="C677" t="s">
         <v>2</v>
@@ -9866,7 +9866,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>12.87</v>
+        <v>-12.87</v>
       </c>
       <c r="C678" t="s">
         <v>2</v>
@@ -9880,7 +9880,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>12.49</v>
+        <v>-12.49</v>
       </c>
       <c r="C679" t="s">
         <v>2</v>
@@ -9894,7 +9894,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>36.87</v>
+        <v>-36.87</v>
       </c>
       <c r="C680" t="s">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>12.78</v>
+        <v>-12.78</v>
       </c>
       <c r="C681" t="s">
         <v>2</v>
@@ -9922,7 +9922,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>31.32</v>
+        <v>-31.32</v>
       </c>
       <c r="C682" t="s">
         <v>2</v>
@@ -9936,7 +9936,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>28.01</v>
+        <v>-28.01</v>
       </c>
       <c r="C683" t="s">
         <v>2</v>
@@ -9950,7 +9950,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>28.32</v>
+        <v>-28.32</v>
       </c>
       <c r="C684" t="s">
         <v>2</v>
@@ -9992,7 +9992,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>18.04</v>
+        <v>-18.04</v>
       </c>
       <c r="C687" t="s">
         <v>2</v>
@@ -10006,7 +10006,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>19.26</v>
+        <v>-19.26</v>
       </c>
       <c r="C688" t="s">
         <v>2</v>
@@ -10020,7 +10020,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>16.66</v>
+        <v>-16.66</v>
       </c>
       <c r="C689" t="s">
         <v>2</v>
@@ -10034,7 +10034,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>24.83</v>
+        <v>-24.83</v>
       </c>
       <c r="C690" t="s">
         <v>2</v>
@@ -10048,7 +10048,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>18.25</v>
+        <v>-18.25</v>
       </c>
       <c r="C691" t="s">
         <v>2</v>
@@ -10062,7 +10062,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>16.48</v>
+        <v>-16.48</v>
       </c>
       <c r="C692" t="s">
         <v>2</v>
@@ -10090,7 +10090,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>13.89</v>
+        <v>-13.89</v>
       </c>
       <c r="C694" t="s">
         <v>2</v>
@@ -10104,7 +10104,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>31.14</v>
+        <v>-31.14</v>
       </c>
       <c r="C695" t="s">
         <v>2</v>
@@ -10118,7 +10118,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>16.67</v>
+        <v>-16.67</v>
       </c>
       <c r="C696" t="s">
         <v>2</v>
@@ -10132,7 +10132,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>5.84</v>
+        <v>-5.84</v>
       </c>
       <c r="C697" t="s">
         <v>2</v>
@@ -10146,7 +10146,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>6.59</v>
+        <v>-6.59</v>
       </c>
       <c r="C698" t="s">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>15.36</v>
+        <v>-15.36</v>
       </c>
       <c r="C699" t="s">
         <v>2</v>
@@ -10174,7 +10174,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>40.68</v>
+        <v>-40.68</v>
       </c>
       <c r="C700" t="s">
         <v>2</v>
@@ -10188,7 +10188,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>8.970000000000001</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C701" t="s">
         <v>2</v>
@@ -10202,7 +10202,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>15.33</v>
+        <v>-15.33</v>
       </c>
       <c r="C702" t="s">
         <v>2</v>
@@ -10230,7 +10230,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>30.31</v>
+        <v>-30.31</v>
       </c>
       <c r="C704" t="s">
         <v>2</v>
@@ -10244,7 +10244,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>8.77</v>
+        <v>-8.77</v>
       </c>
       <c r="C705" t="s">
         <v>2</v>
@@ -10258,7 +10258,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>7.9</v>
+        <v>-7.9</v>
       </c>
       <c r="C706" t="s">
         <v>2</v>
@@ -10272,7 +10272,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>18.01</v>
+        <v>-18.01</v>
       </c>
       <c r="C707" t="s">
         <v>2</v>
@@ -10286,7 +10286,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>13.46</v>
+        <v>-13.46</v>
       </c>
       <c r="C708" t="s">
         <v>2</v>
@@ -10300,7 +10300,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>10.63</v>
+        <v>-10.63</v>
       </c>
       <c r="C709" t="s">
         <v>2</v>
@@ -10314,7 +10314,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>15.54</v>
+        <v>-15.54</v>
       </c>
       <c r="C710" t="s">
         <v>2</v>
@@ -10328,7 +10328,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>8.050000000000001</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="C711" t="s">
         <v>2</v>
@@ -10342,7 +10342,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>26.94</v>
+        <v>-26.94</v>
       </c>
       <c r="C712" t="s">
         <v>2</v>
@@ -10356,7 +10356,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>21.46</v>
+        <v>-21.46</v>
       </c>
       <c r="C713" t="s">
         <v>2</v>
@@ -10370,7 +10370,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>18.02</v>
+        <v>-18.02</v>
       </c>
       <c r="C714" t="s">
         <v>2</v>
@@ -10384,7 +10384,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>22.93</v>
+        <v>-22.93</v>
       </c>
       <c r="C715" t="s">
         <v>2</v>
@@ -10398,7 +10398,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>21.03</v>
+        <v>-21.03</v>
       </c>
       <c r="C716" t="s">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>12.31</v>
+        <v>-12.31</v>
       </c>
       <c r="C717" t="s">
         <v>2</v>
@@ -10426,7 +10426,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>7.14</v>
+        <v>-7.14</v>
       </c>
       <c r="C718" t="s">
         <v>2</v>
@@ -10440,7 +10440,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>27.54</v>
+        <v>-27.54</v>
       </c>
       <c r="C719" t="s">
         <v>2</v>
@@ -10454,7 +10454,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>23.26</v>
+        <v>-23.26</v>
       </c>
       <c r="C720" t="s">
         <v>2</v>
@@ -10468,7 +10468,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>5.42</v>
+        <v>-5.42</v>
       </c>
       <c r="C721" t="s">
         <v>2</v>
@@ -10482,7 +10482,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>6.08</v>
+        <v>-6.08</v>
       </c>
       <c r="C722" t="s">
         <v>2</v>
@@ -10496,7 +10496,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>21.32</v>
+        <v>-21.32</v>
       </c>
       <c r="C723" t="s">
         <v>2</v>
@@ -10510,7 +10510,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>27.81</v>
+        <v>-27.81</v>
       </c>
       <c r="C724" t="s">
         <v>2</v>
@@ -10524,7 +10524,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>26.11</v>
+        <v>-26.11</v>
       </c>
       <c r="C725" t="s">
         <v>2</v>
@@ -10538,7 +10538,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>24.16</v>
+        <v>-24.16</v>
       </c>
       <c r="C726" t="s">
         <v>2</v>
@@ -10552,7 +10552,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>24.86</v>
+        <v>-24.86</v>
       </c>
       <c r="C727" t="s">
         <v>2</v>
@@ -10566,7 +10566,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>16.44</v>
+        <v>-16.44</v>
       </c>
       <c r="C728" t="s">
         <v>2</v>
@@ -10580,7 +10580,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>36.75</v>
+        <v>-36.75</v>
       </c>
       <c r="C729" t="s">
         <v>2</v>
@@ -10594,7 +10594,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>29.43</v>
+        <v>-29.43</v>
       </c>
       <c r="C730" t="s">
         <v>2</v>
@@ -10608,7 +10608,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>21.03</v>
+        <v>-21.03</v>
       </c>
       <c r="C731" t="s">
         <v>2</v>
@@ -10622,7 +10622,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>16.43</v>
+        <v>-16.43</v>
       </c>
       <c r="C732" t="s">
         <v>2</v>
@@ -10636,7 +10636,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>16.51</v>
+        <v>-16.51</v>
       </c>
       <c r="C733" t="s">
         <v>2</v>
@@ -10650,7 +10650,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>32.57</v>
+        <v>-32.57</v>
       </c>
       <c r="C734" t="s">
         <v>2</v>
@@ -10664,7 +10664,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>33.83</v>
+        <v>-33.83</v>
       </c>
       <c r="C735" t="s">
         <v>2</v>
@@ -10678,7 +10678,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>27.7</v>
+        <v>-27.7</v>
       </c>
       <c r="C736" t="s">
         <v>2</v>
@@ -10692,7 +10692,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="C737" t="s">
         <v>2</v>
@@ -10706,7 +10706,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>24.71</v>
+        <v>-24.71</v>
       </c>
       <c r="C738" t="s">
         <v>2</v>
@@ -10720,7 +10720,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>21.98</v>
+        <v>-21.98</v>
       </c>
       <c r="C739" t="s">
         <v>2</v>
@@ -10734,7 +10734,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>29.25</v>
+        <v>-29.25</v>
       </c>
       <c r="C740" t="s">
         <v>2</v>
@@ -10748,7 +10748,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>24.24</v>
+        <v>-24.24</v>
       </c>
       <c r="C741" t="s">
         <v>2</v>
@@ -10762,7 +10762,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>15.85</v>
+        <v>-15.85</v>
       </c>
       <c r="C742" t="s">
         <v>2</v>
@@ -10776,7 +10776,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>12.29</v>
+        <v>-12.29</v>
       </c>
       <c r="C743" t="s">
         <v>2</v>
@@ -10790,7 +10790,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>23.61</v>
+        <v>-23.61</v>
       </c>
       <c r="C744" t="s">
         <v>2</v>
@@ -10804,7 +10804,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>1.49</v>
+        <v>-1.49</v>
       </c>
       <c r="C745" t="s">
         <v>2</v>
@@ -10818,7 +10818,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>14.62</v>
+        <v>-14.62</v>
       </c>
       <c r="C746" t="s">
         <v>2</v>
@@ -10832,7 +10832,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>14.98</v>
+        <v>-14.98</v>
       </c>
       <c r="C747" t="s">
         <v>2</v>
@@ -10846,7 +10846,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>32.49</v>
+        <v>-32.49</v>
       </c>
       <c r="C748" t="s">
         <v>2</v>
@@ -10874,7 +10874,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>14.96</v>
+        <v>-14.96</v>
       </c>
       <c r="C750" t="s">
         <v>2</v>
@@ -10888,7 +10888,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>22.17</v>
+        <v>-22.17</v>
       </c>
       <c r="C751" t="s">
         <v>2</v>
@@ -10902,7 +10902,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>23.97</v>
+        <v>-23.97</v>
       </c>
       <c r="C752" t="s">
         <v>2</v>
@@ -10916,7 +10916,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>21.87</v>
+        <v>-21.87</v>
       </c>
       <c r="C753" t="s">
         <v>2</v>
@@ -10930,7 +10930,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>21.32</v>
+        <v>-21.32</v>
       </c>
       <c r="C754" t="s">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>13.44</v>
+        <v>-13.44</v>
       </c>
       <c r="C755" t="s">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>2.09</v>
+        <v>-2.09</v>
       </c>
       <c r="C756" t="s">
         <v>2</v>
@@ -10972,7 +10972,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>24.13</v>
+        <v>-24.13</v>
       </c>
       <c r="C757" t="s">
         <v>2</v>
@@ -10986,7 +10986,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>30.57</v>
+        <v>-30.57</v>
       </c>
       <c r="C758" t="s">
         <v>2</v>
@@ -11000,7 +11000,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>15.08</v>
+        <v>-15.08</v>
       </c>
       <c r="C759" t="s">
         <v>2</v>
@@ -11014,7 +11014,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>13.27</v>
+        <v>-13.27</v>
       </c>
       <c r="C760" t="s">
         <v>2</v>
@@ -11028,7 +11028,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>10.65</v>
+        <v>-10.65</v>
       </c>
       <c r="C761" t="s">
         <v>2</v>
@@ -11042,7 +11042,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>25.26</v>
+        <v>-25.26</v>
       </c>
       <c r="C762" t="s">
         <v>2</v>
@@ -11056,7 +11056,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>7.91</v>
+        <v>-7.91</v>
       </c>
       <c r="C763" t="s">
         <v>2</v>
@@ -11070,7 +11070,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>23.29</v>
+        <v>-23.29</v>
       </c>
       <c r="C764" t="s">
         <v>2</v>
@@ -11084,7 +11084,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>10.6</v>
+        <v>-10.6</v>
       </c>
       <c r="C765" t="s">
         <v>2</v>
@@ -11098,7 +11098,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>8.5</v>
+        <v>-8.5</v>
       </c>
       <c r="C766" t="s">
         <v>2</v>
@@ -11112,7 +11112,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>8.19</v>
+        <v>-8.19</v>
       </c>
       <c r="C767" t="s">
         <v>2</v>
@@ -11126,7 +11126,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>9.970000000000001</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="C768" t="s">
         <v>2</v>
@@ -11140,7 +11140,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>15.9</v>
+        <v>-15.9</v>
       </c>
       <c r="C769" t="s">
         <v>2</v>
@@ -11154,7 +11154,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>18.74</v>
+        <v>-18.74</v>
       </c>
       <c r="C770" t="s">
         <v>2</v>
@@ -11168,7 +11168,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>0.82</v>
+        <v>-0.82</v>
       </c>
       <c r="C771" t="s">
         <v>2</v>
@@ -11182,7 +11182,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>32.8</v>
+        <v>-32.8</v>
       </c>
       <c r="C772" t="s">
         <v>2</v>
@@ -11196,7 +11196,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>22.69</v>
+        <v>-22.69</v>
       </c>
       <c r="C773" t="s">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>21.03</v>
+        <v>-21.03</v>
       </c>
       <c r="C774" t="s">
         <v>2</v>
@@ -11224,7 +11224,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>33.53</v>
+        <v>-33.53</v>
       </c>
       <c r="C775" t="s">
         <v>2</v>
@@ -11238,7 +11238,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>8.890000000000001</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C776" t="s">
         <v>2</v>
@@ -11252,7 +11252,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>8.34</v>
+        <v>-8.34</v>
       </c>
       <c r="C777" t="s">
         <v>2</v>
@@ -11266,7 +11266,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>22.57</v>
+        <v>-22.57</v>
       </c>
       <c r="C778" t="s">
         <v>2</v>
@@ -11280,7 +11280,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>12.77</v>
+        <v>-12.77</v>
       </c>
       <c r="C779" t="s">
         <v>2</v>
@@ -11294,7 +11294,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>9.869999999999999</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="C780" t="s">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>26.98</v>
+        <v>-26.98</v>
       </c>
       <c r="C781" t="s">
         <v>2</v>
@@ -11322,7 +11322,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>17.96</v>
+        <v>-17.96</v>
       </c>
       <c r="C782" t="s">
         <v>2</v>
@@ -11336,7 +11336,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>17.77</v>
+        <v>-17.77</v>
       </c>
       <c r="C783" t="s">
         <v>2</v>
@@ -11350,7 +11350,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>18.16</v>
+        <v>-18.16</v>
       </c>
       <c r="C784" t="s">
         <v>2</v>
@@ -11378,7 +11378,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>32.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C786" t="s">
         <v>2</v>
@@ -11392,7 +11392,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>17.8</v>
+        <v>-17.8</v>
       </c>
       <c r="C787" t="s">
         <v>2</v>
@@ -11406,7 +11406,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>38.69</v>
+        <v>-38.69</v>
       </c>
       <c r="C788" t="s">
         <v>2</v>
@@ -11420,7 +11420,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>30.65</v>
+        <v>-30.65</v>
       </c>
       <c r="C789" t="s">
         <v>2</v>
@@ -11434,7 +11434,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>6.1</v>
+        <v>-6.1</v>
       </c>
       <c r="C790" t="s">
         <v>2</v>
@@ -11448,7 +11448,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>17.38</v>
+        <v>-17.38</v>
       </c>
       <c r="C791" t="s">
         <v>2</v>
@@ -11462,7 +11462,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>11.53</v>
+        <v>-11.53</v>
       </c>
       <c r="C792" t="s">
         <v>2</v>
@@ -11476,7 +11476,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>7.41</v>
+        <v>-7.41</v>
       </c>
       <c r="C793" t="s">
         <v>2</v>
@@ -11490,7 +11490,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>38.21</v>
+        <v>-38.21</v>
       </c>
       <c r="C794" t="s">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>16.38</v>
+        <v>-16.38</v>
       </c>
       <c r="C795" t="s">
         <v>2</v>
@@ -11518,7 +11518,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>23.24</v>
+        <v>-23.24</v>
       </c>
       <c r="C796" t="s">
         <v>2</v>
@@ -11532,7 +11532,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>30.67</v>
+        <v>-30.67</v>
       </c>
       <c r="C797" t="s">
         <v>2</v>
@@ -11546,7 +11546,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>12.21</v>
+        <v>-12.21</v>
       </c>
       <c r="C798" t="s">
         <v>2</v>
@@ -11574,7 +11574,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>30.23</v>
+        <v>-30.23</v>
       </c>
       <c r="C800" t="s">
         <v>2</v>
@@ -11588,7 +11588,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>18.8</v>
+        <v>-18.8</v>
       </c>
       <c r="C801" t="s">
         <v>2</v>
